--- a/My Develetech Lists.xlsx
+++ b/My Develetech Lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\091137Data\Working with Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFF1FFE-A472-4C52-B4E4-11741FD5B29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EA7EFC-8328-4017-B683-DB90A6646793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,7 +372,7 @@
     <t xml:space="preserve">Filtering Data: </t>
   </si>
   <si>
-    <t>Filtering Data for all employees in the PB4 Office location</t>
+    <t>Filtering Data for Management and Marketing department</t>
   </si>
 </sst>
 </file>
@@ -559,9 +559,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{68F45734-D195-4A34-A354-45747A20E15C}" name="Table4" displayName="Table4" ref="A1:F31" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:F31" xr:uid="{68F45734-D195-4A34-A354-45747A20E15C}">
-    <filterColumn colId="4">
+    <filterColumn colId="3">
       <filters>
-        <filter val="PB4"/>
+        <filter val="Management"/>
+        <filter val="Marketing"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -874,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,7 +897,7 @@
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -916,7 +917,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -936,7 +937,7 @@
         <v>4660</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -955,11 +956,6 @@
       <c r="F3">
         <v>4447</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -980,11 +976,6 @@
       <c r="F4">
         <v>4939</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
       <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1006,9 +997,6 @@
       <c r="F5">
         <v>4005</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
       <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1030,9 +1018,6 @@
       <c r="F6">
         <v>4430</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
       <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1054,9 +1039,6 @@
       <c r="F7">
         <v>4325</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1107,7 +1089,7 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -1155,7 +1137,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1179,7 +1161,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1227,7 +1209,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1439,7 +1421,7 @@
         <v>4307</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1539,7 +1521,7 @@
         <v>4503</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1578,6 +1560,36 @@
       <c r="F31">
         <v>4243</v>
       </c>
+    </row>
+    <row r="34" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G35" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G36" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
@@ -1586,8 +1598,8 @@
     <sortCondition ref="F2:F31"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K7"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
